--- a/StructureDefinition-emr-lab-task.xlsx
+++ b/StructureDefinition-emr-lab-task.xlsx
@@ -482,7 +482,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-task-status</t>
+    <t>http://openhie.org/fhir/ValueSet/emr-lab-task-status-vs</t>
   </si>
   <si>
     <t>Request.status, Event.status</t>
@@ -550,7 +550,7 @@
 In most cases, Tasks will have an intent of "order".</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-task-intent</t>
+    <t>http://openhie.org/fhir/ValueSet/emr-lab-task-intent-vs</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -1474,7 +1474,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.41015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-emr-lab-task.xlsx
+++ b/StructureDefinition-emr-lab-task.xlsx
@@ -408,7 +408,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-service-request)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lab-service-request)
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-task-status-vs</t>
+    <t>http://i-tech-uw.github.io/emr-lis-ig/ValueSet/emr-lab-task-status-vs</t>
   </si>
   <si>
     <t>Request.status, Event.status</t>
@@ -550,7 +550,7 @@
 In most cases, Tasks will have an intent of "order".</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-task-intent-vs</t>
+    <t>http://i-tech-uw.github.io/emr-lis-ig/ValueSet/emr-lab-task-intent-vs</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-patient)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lab-patient)
 </t>
   </si>
   <si>
@@ -1282,7 +1282,7 @@
     <t>Task.output.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-diagnostic-report)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lab-diagnostic-report)
 </t>
   </si>
   <si>
@@ -1474,7 +1474,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
